--- a/Code/item51to100/src/anote.xlsx
+++ b/Code/item51to100/src/anote.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitProject\LeetCodeNote\Code\item51to60\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitProject\LeetCodeNote\Code\item51to100\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5AAD98-1BE4-4210-A39C-6D33584CDB43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00D1C8A-7DBC-4EB0-8177-CB7CD31045CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>入口</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -56,6 +56,83 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X=15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 Mid^2&gt;X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid^2&lt;X</t>
+  </si>
+  <si>
+    <t>Mid^2&lt;X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 Mid^2&lt;X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left/Right/Mid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1122,18 +1199,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28650521-4F92-4053-A614-5E850EFE644D}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="11.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1231,6 +1313,105 @@
         <v>4</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
